--- a/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>149935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134244</v>
+        <v>132149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162603</v>
+        <v>161338</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8636503703056232</v>
+        <v>0.8636503703056233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7732654831444877</v>
+        <v>0.7612025017442711</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9366213526270343</v>
+        <v>0.929336411599926</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -762,19 +762,19 @@
         <v>115496</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101565</v>
+        <v>101077</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124448</v>
+        <v>124822</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8457284508668973</v>
+        <v>0.8457284508668972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7437144864800213</v>
+        <v>0.7401430162270385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9112830792248818</v>
+        <v>0.9140151269663909</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -783,19 +783,19 @@
         <v>265431</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243189</v>
+        <v>245342</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>281653</v>
+        <v>280467</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8557595565468351</v>
+        <v>0.855759556546835</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7840511227453171</v>
+        <v>0.7909905336393935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9080610093973972</v>
+        <v>0.9042362832020012</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8394</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1843</v>
+        <v>1875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26181</v>
+        <v>22218</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04835090185349013</v>
+        <v>0.04835090185349016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01061518387988881</v>
+        <v>0.01080201282863582</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1508088507076161</v>
+        <v>0.1279776668052515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>8394</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24358</v>
+        <v>22413</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02706255922368678</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005979457008562948</v>
+        <v>0.005986526393111804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07853152059849038</v>
+        <v>0.07226130759154138</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10652</v>
+        <v>10322</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01739822824854407</v>
+        <v>0.01739822824854408</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06135532080074135</v>
+        <v>0.05945365039104909</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10643</v>
+        <v>11008</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02306957573745833</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07793407425884145</v>
+        <v>0.08061040709267178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1011,19 +1011,19 @@
         <v>6171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1613</v>
+        <v>1567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14327</v>
+        <v>16223</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01989525692615842</v>
+        <v>0.01989525692615841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005199758626335549</v>
+        <v>0.005053138018843198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04618971176219791</v>
+        <v>0.05230264140631516</v>
       </c>
     </row>
     <row r="9">
@@ -1087,19 +1087,19 @@
         <v>12257</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4435</v>
+        <v>4404</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27268</v>
+        <v>27922</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0706004995923426</v>
+        <v>0.07060049959234262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0255484070619767</v>
+        <v>0.02536789933291793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1570694640568271</v>
+        <v>0.1608382238326935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1108,19 +1108,19 @@
         <v>17917</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9219</v>
+        <v>9793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30956</v>
+        <v>32040</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1312019733956445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06750647700318654</v>
+        <v>0.07170642287318134</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2266781916291885</v>
+        <v>0.2346159383714418</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1129,19 +1129,19 @@
         <v>30174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18233</v>
+        <v>18496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50653</v>
+        <v>48595</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09728262730331969</v>
+        <v>0.09728262730331966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05878249298776597</v>
+        <v>0.05963215339430929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1633084548081182</v>
+        <v>0.1566710972550688</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>364571</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>341070</v>
+        <v>342118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>385840</v>
+        <v>384515</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8040558577281768</v>
+        <v>0.8040558577281767</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7522252565486939</v>
+        <v>0.7545351207903837</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.85096349730516</v>
+        <v>0.8480417957247443</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>355</v>
@@ -1254,19 +1254,19 @@
         <v>379770</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>365041</v>
+        <v>364689</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>391943</v>
+        <v>391795</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8749450193973334</v>
+        <v>0.8749450193973335</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8410121549108948</v>
+        <v>0.8401993451158705</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9029895391553134</v>
+        <v>0.902649454918207</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>582</v>
@@ -1275,19 +1275,19 @@
         <v>744341</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>718045</v>
+        <v>714445</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>767555</v>
+        <v>768292</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8387269872165291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8090971506247213</v>
+        <v>0.8050402581594445</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8648851810256937</v>
+        <v>0.865715726104143</v>
       </c>
     </row>
     <row r="13">
@@ -1304,19 +1304,19 @@
         <v>27127</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17049</v>
+        <v>17273</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42785</v>
+        <v>44108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05982794002541918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03760099140690026</v>
+        <v>0.03809527478134293</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09436231123421346</v>
+        <v>0.09728056121583631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1325,19 +1325,19 @@
         <v>15598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9090</v>
+        <v>8575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25885</v>
+        <v>26194</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03593598316115789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02094326375344789</v>
+        <v>0.0197558892263764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05963627646403055</v>
+        <v>0.06034783382093627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1346,19 +1346,19 @@
         <v>42725</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29223</v>
+        <v>29903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59113</v>
+        <v>59823</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04814263989396982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03292850806820572</v>
+        <v>0.03369492353604899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06660869883628272</v>
+        <v>0.06740877491093314</v>
       </c>
     </row>
     <row r="14">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6274</v>
+        <v>6289</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002669073599013658</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01383685093961557</v>
+        <v>0.01387086092144082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5353</v>
+        <v>5338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00244281618010666</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01233247083198315</v>
+        <v>0.01229853701804255</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7908</v>
+        <v>8437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00255841351947659</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00891058554702504</v>
+        <v>0.009506619314266692</v>
       </c>
     </row>
     <row r="15">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17437</v>
+        <v>20457</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008286609041842608</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0384564323159708</v>
+        <v>0.04511776973401306</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3740</v>
+        <v>3014</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001696673186683143</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.008616977413610859</v>
+        <v>0.006943949109328252</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>18614</v>
+        <v>23991</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005063542017570266</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02097436631375724</v>
+        <v>0.02703334743092194</v>
       </c>
     </row>
     <row r="16">
@@ -1517,19 +1517,19 @@
         <v>14197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7047</v>
+        <v>6941</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25728</v>
+        <v>27271</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03131130735238762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01554114543546634</v>
+        <v>0.01530918873665768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05674174537068048</v>
+        <v>0.06014685239684175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1538,19 +1538,19 @@
         <v>7913</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3274</v>
+        <v>3226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16612</v>
+        <v>16397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01823102952681084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007542175719138546</v>
+        <v>0.007433167865356464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03827175972316354</v>
+        <v>0.03777753555351994</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1559,19 +1559,19 @@
         <v>22110</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12317</v>
+        <v>13219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35672</v>
+        <v>35709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02491388360585298</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01387940134773726</v>
+        <v>0.01489477419681136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04019487791408733</v>
+        <v>0.04023703994443377</v>
       </c>
     </row>
     <row r="17">
@@ -1588,19 +1588,19 @@
         <v>4353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10580</v>
+        <v>12891</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009600714826995581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002785632250715636</v>
+        <v>0.002783002695916721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02333383824829142</v>
+        <v>0.028430092136137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6284</v>
+        <v>6256</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002501293667552344</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01447840049362694</v>
+        <v>0.01441259682846643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1630,19 +1630,19 @@
         <v>5439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1747</v>
+        <v>1338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13026</v>
+        <v>13563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006128463998862277</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0019689346115603</v>
+        <v>0.001507429277423376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01467828439917697</v>
+        <v>0.01528235986113302</v>
       </c>
     </row>
     <row r="18">
@@ -1659,19 +1659,19 @@
         <v>38200</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25732</v>
+        <v>26553</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55341</v>
+        <v>54243</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08424849742616457</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0567513780882645</v>
+        <v>0.05856265325378274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1220528615182289</v>
+        <v>0.1196329257755464</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1680,19 +1680,19 @@
         <v>27886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19055</v>
+        <v>19379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40624</v>
+        <v>39537</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06424718488035555</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04390021817319342</v>
+        <v>0.04464632368632061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09359319571557702</v>
+        <v>0.09108803704530256</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -1701,19 +1701,19 @@
         <v>66086</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49641</v>
+        <v>49437</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84921</v>
+        <v>86141</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07446606974773889</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0559355683579765</v>
+        <v>0.05570584440196516</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09568975486978155</v>
+        <v>0.09706410787752126</v>
       </c>
     </row>
     <row r="19">
@@ -1805,19 +1805,19 @@
         <v>442771</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>417533</v>
+        <v>419751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>465028</v>
+        <v>465048</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7239005203958874</v>
+        <v>0.7239005203958871</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.682637556837055</v>
+        <v>0.6862650666837261</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7602887829250129</v>
+        <v>0.7603219253858301</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>644</v>
@@ -1826,19 +1826,19 @@
         <v>469470</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>454435</v>
+        <v>453722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>485842</v>
+        <v>484636</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8225299902881266</v>
+        <v>0.8225299902881263</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7961880095640393</v>
+        <v>0.7949388279695074</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8512154057848116</v>
+        <v>0.8491027396057972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1031</v>
@@ -1847,19 +1847,19 @@
         <v>912241</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>881444</v>
+        <v>883411</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>941430</v>
+        <v>940734</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7715101837121887</v>
+        <v>0.7715101837121888</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7454642384107408</v>
+        <v>0.7471283477341962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7961969451812249</v>
+        <v>0.7956077968239929</v>
       </c>
     </row>
     <row r="21">
@@ -1876,19 +1876,19 @@
         <v>57653</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44952</v>
+        <v>45295</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73960</v>
+        <v>75736</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09425856007025757</v>
+        <v>0.09425856007025754</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07349357759379006</v>
+        <v>0.07405453886816461</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1209201479645167</v>
+        <v>0.1238228632446294</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -1897,19 +1897,19 @@
         <v>25626</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17501</v>
+        <v>17327</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34699</v>
+        <v>35084</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04489840221157015</v>
+        <v>0.04489840221157014</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03066275383429307</v>
+        <v>0.03035763151342696</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06079426311093797</v>
+        <v>0.06146856185003509</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>84</v>
@@ -1918,19 +1918,19 @@
         <v>83279</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66731</v>
+        <v>67836</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103138</v>
+        <v>102079</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07043180221117962</v>
+        <v>0.07043180221117963</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05643632174680806</v>
+        <v>0.05737098350154161</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08722686290555745</v>
+        <v>0.08633123728854465</v>
       </c>
     </row>
     <row r="22">
@@ -1950,16 +1950,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8392</v>
+        <v>8445</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.003936077569404269</v>
+        <v>0.003936077569404268</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01372080654394389</v>
+        <v>0.01380749416610548</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8449</v>
+        <v>8415</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002036084311091837</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007145216307768929</v>
+        <v>0.007116755901328403</v>
       </c>
     </row>
     <row r="23">
@@ -2010,19 +2010,19 @@
         <v>3635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9829</v>
+        <v>9531</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005942209379088619</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001833977379184641</v>
+        <v>0.001832800104584303</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01607007341608303</v>
+        <v>0.01558183643559116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2031,19 +2031,19 @@
         <v>5960</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2788</v>
+        <v>2453</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11552</v>
+        <v>10904</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.01044244857543137</v>
+        <v>0.01044244857543136</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004885400448011428</v>
+        <v>0.004298097431642444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02023901568406762</v>
+        <v>0.01910363986360855</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2052,19 +2052,19 @@
         <v>9595</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4782</v>
+        <v>5002</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16608</v>
+        <v>17028</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008114530422837432</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004043918743305373</v>
+        <v>0.00422994877502616</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01404597231676722</v>
+        <v>0.01440106532650907</v>
       </c>
     </row>
     <row r="24">
@@ -2081,19 +2081,19 @@
         <v>24506</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15991</v>
+        <v>15370</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35538</v>
+        <v>35655</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04006560597857987</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02614401658325255</v>
+        <v>0.02512913771100919</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05810204080515498</v>
+        <v>0.05829318786920951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2102,19 +2102,19 @@
         <v>16286</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10130</v>
+        <v>10350</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23469</v>
+        <v>23649</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02853345812173075</v>
+        <v>0.02853345812173074</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01774797620789574</v>
+        <v>0.01813407196673182</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04111834872273543</v>
+        <v>0.04143334994553196</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -2123,19 +2123,19 @@
         <v>40792</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30527</v>
+        <v>30695</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53114</v>
+        <v>54202</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03449889577139466</v>
+        <v>0.03449889577139467</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02581728576904251</v>
+        <v>0.02595936396659353</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04491983107467912</v>
+        <v>0.04584036620856607</v>
       </c>
     </row>
     <row r="25">
@@ -2152,19 +2152,19 @@
         <v>9476</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4561</v>
+        <v>3506</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19209</v>
+        <v>19304</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01549294450748893</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007456903447198267</v>
+        <v>0.005731938448172181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03140500744659097</v>
+        <v>0.03156141673372341</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2173,19 +2173,19 @@
         <v>4150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1442</v>
+        <v>1332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9039</v>
+        <v>9779</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.00727015319115083</v>
+        <v>0.007270153191150828</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00252658240785081</v>
+        <v>0.002332992603864984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01583622912773186</v>
+        <v>0.0171326972945599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2194,19 +2194,19 @@
         <v>13626</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7318</v>
+        <v>7657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25470</v>
+        <v>24513</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01152370157716807</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006189257162110256</v>
+        <v>0.006476086299400572</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02154105111518376</v>
+        <v>0.02073139393370951</v>
       </c>
     </row>
     <row r="26">
@@ -2223,19 +2223,19 @@
         <v>71198</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54504</v>
+        <v>55589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>88008</v>
+        <v>90145</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1164040820992935</v>
+        <v>0.1164040820992934</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08911095897050195</v>
+        <v>0.09088377997173071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1438873765436519</v>
+        <v>0.1473809452031741</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -2244,19 +2244,19 @@
         <v>49271</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38368</v>
+        <v>38364</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60716</v>
+        <v>62487</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08632554761199047</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06722294046855722</v>
+        <v>0.06721501092755312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1063762417059719</v>
+        <v>0.1094793979090378</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>130</v>
@@ -2265,19 +2265,19 @@
         <v>120470</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100919</v>
+        <v>101182</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142490</v>
+        <v>144792</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1018848019941396</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08535034382435099</v>
+        <v>0.08557294989123562</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1205083118296259</v>
+        <v>0.1224554746478496</v>
       </c>
     </row>
     <row r="27">
@@ -2369,19 +2369,19 @@
         <v>477627</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>452435</v>
+        <v>453074</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>500820</v>
+        <v>502164</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7071631467802305</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6698643792593265</v>
+        <v>0.6708099524476917</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7415024895450587</v>
+        <v>0.7434924426230264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>774</v>
@@ -2390,19 +2390,19 @@
         <v>494303</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>477724</v>
+        <v>477757</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>510861</v>
+        <v>510977</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7810735983909685</v>
+        <v>0.7810735983909683</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7548757412035133</v>
+        <v>0.7549277564204041</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8072378449405386</v>
+        <v>0.8074205612869563</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1226</v>
@@ -2411,19 +2411,19 @@
         <v>971930</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>940176</v>
+        <v>941377</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>998650</v>
+        <v>1002105</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7429161064790021</v>
+        <v>0.742916106479002</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7186439591581488</v>
+        <v>0.7195619727972017</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7633398475285368</v>
+        <v>0.765980666616502</v>
       </c>
     </row>
     <row r="29">
@@ -2440,19 +2440,19 @@
         <v>47853</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34243</v>
+        <v>34414</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62501</v>
+        <v>63469</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07084943344815312</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0506988912720848</v>
+        <v>0.0509520817169535</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09253671805831312</v>
+        <v>0.0939712618564456</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -2461,19 +2461,19 @@
         <v>31562</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23423</v>
+        <v>23080</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41638</v>
+        <v>42207</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0498722094605415</v>
+        <v>0.04987220946054149</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03701265749809967</v>
+        <v>0.03647060349795445</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06579379779645811</v>
+        <v>0.06669392768986326</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>88</v>
@@ -2482,19 +2482,19 @@
         <v>79414</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64413</v>
+        <v>64240</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>97306</v>
+        <v>98553</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06070204796374057</v>
+        <v>0.06070204796374055</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04923545486810431</v>
+        <v>0.04910350132320137</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07437762599250036</v>
+        <v>0.07533089568007091</v>
       </c>
     </row>
     <row r="30">
@@ -2511,19 +2511,19 @@
         <v>5316</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1597</v>
+        <v>1892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11437</v>
+        <v>11855</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.007871197809427579</v>
+        <v>0.007871197809427577</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002364882744943875</v>
+        <v>0.002801372493089683</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0169335555238313</v>
+        <v>0.01755235682817947</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4150</v>
+        <v>3517</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001113380526513773</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006557200637934623</v>
+        <v>0.005557336440078497</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2553,19 +2553,19 @@
         <v>6021</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2307</v>
+        <v>2243</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12514</v>
+        <v>12188</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.004602215362396015</v>
+        <v>0.004602215362396013</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001763134235569479</v>
+        <v>0.001714490044314997</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.009565590829225128</v>
+        <v>0.009316221272122057</v>
       </c>
     </row>
     <row r="31">
@@ -2582,19 +2582,19 @@
         <v>8628</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3996</v>
+        <v>3896</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17074</v>
+        <v>16141</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01277392040910068</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005916860702327048</v>
+        <v>0.005768434746291781</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02527961351832103</v>
+        <v>0.0238981236586229</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2603,19 +2603,19 @@
         <v>7577</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4075</v>
+        <v>4023</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13134</v>
+        <v>13079</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01197332215529357</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006438803428188099</v>
+        <v>0.006357300814988443</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02075406084695809</v>
+        <v>0.02066629500137627</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -2624,19 +2624,19 @@
         <v>16205</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9850</v>
+        <v>9710</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25240</v>
+        <v>24307</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.01238664423259964</v>
+        <v>0.01238664423259963</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.007529289777443656</v>
+        <v>0.007422346515707745</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01929303589536288</v>
+        <v>0.0185794220792317</v>
       </c>
     </row>
     <row r="32">
@@ -2653,19 +2653,19 @@
         <v>28218</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19255</v>
+        <v>20331</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39928</v>
+        <v>39592</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04177899688508313</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02850843207775328</v>
+        <v>0.03010171143667725</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05911669652826535</v>
+        <v>0.05861844136273561</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -2674,19 +2674,19 @@
         <v>11544</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7051</v>
+        <v>7363</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17536</v>
+        <v>17746</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.0182411274815813</v>
+        <v>0.01824112748158129</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01114194112173617</v>
+        <v>0.01163508126953954</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02770880010678686</v>
+        <v>0.02804108158419065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -2695,19 +2695,19 @@
         <v>39762</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30154</v>
+        <v>30415</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53572</v>
+        <v>52264</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.03039294149185533</v>
+        <v>0.03039294149185532</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02304904934384377</v>
+        <v>0.02324821270642917</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04094914707774065</v>
+        <v>0.03994934061255059</v>
       </c>
     </row>
     <row r="33">
@@ -2724,19 +2724,19 @@
         <v>11999</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>6609</v>
+        <v>5789</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22413</v>
+        <v>21828</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01776505027991688</v>
+        <v>0.01776505027991689</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00978488235871784</v>
+        <v>0.008571476053122985</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03318388096156742</v>
+        <v>0.03231767082403739</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -2745,19 +2745,19 @@
         <v>8125</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4385</v>
+        <v>4547</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>13476</v>
+        <v>13526</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01283822865976965</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.00692865737842859</v>
+        <v>0.007184826198535433</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02129344040237714</v>
+        <v>0.02137352681199658</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>22</v>
@@ -2766,19 +2766,19 @@
         <v>20123</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12706</v>
+        <v>12048</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>30042</v>
+        <v>30685</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01538178173007936</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00971203535458065</v>
+        <v>0.009209277598231026</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02296327766628984</v>
+        <v>0.02345445341708895</v>
       </c>
     </row>
     <row r="34">
@@ -2795,19 +2795,19 @@
         <v>95772</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>79483</v>
+        <v>76306</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>114007</v>
+        <v>116572</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.141798254388088</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1176810287967072</v>
+        <v>0.1129761001543719</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1687957918061526</v>
+        <v>0.1725940763782779</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>120</v>
@@ -2816,19 +2816,19 @@
         <v>79036</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>66371</v>
+        <v>66253</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>92758</v>
+        <v>92207</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1248881333253318</v>
+        <v>0.1248881333253317</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1048759248255392</v>
+        <v>0.1046891788512663</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1465713183868709</v>
+        <v>0.1457013493405911</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>210</v>
@@ -2837,19 +2837,19 @@
         <v>174808</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>153129</v>
+        <v>152066</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>198029</v>
+        <v>198872</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1336182627403271</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1170474035237084</v>
+        <v>0.1162348441557664</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1513675022295202</v>
+        <v>0.1520118609977169</v>
       </c>
     </row>
     <row r="35">
@@ -2941,19 +2941,19 @@
         <v>418191</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>397231</v>
+        <v>397070</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>438473</v>
+        <v>438995</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.6958563342542815</v>
+        <v>0.6958563342542814</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6609800121298066</v>
+        <v>0.6607126046967554</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7296054138817267</v>
+        <v>0.7304745530230836</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>632</v>
@@ -2962,19 +2962,19 @@
         <v>379498</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>364767</v>
+        <v>364878</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>392885</v>
+        <v>392867</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7831591406209057</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7527595324087557</v>
+        <v>0.752988738905133</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8107869857808521</v>
+        <v>0.8107491905247792</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1087</v>
@@ -2983,19 +2983,19 @@
         <v>797689</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>772083</v>
+        <v>771078</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>824967</v>
+        <v>822774</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.7348270986410841</v>
+        <v>0.7348270986410839</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7112394103942776</v>
+        <v>0.7103131123952885</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.759956081812815</v>
+        <v>0.7579358475250859</v>
       </c>
     </row>
     <row r="37">
@@ -3012,19 +3012,19 @@
         <v>43435</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>32048</v>
+        <v>33132</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>57074</v>
+        <v>57017</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.07227445319687521</v>
+        <v>0.0722744531968752</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05332609845660909</v>
+        <v>0.05513014886376186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09496968251825882</v>
+        <v>0.09487417873730287</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>33</v>
@@ -3033,19 +3033,19 @@
         <v>21601</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15357</v>
+        <v>15038</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29790</v>
+        <v>30050</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04457647442463022</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03169142031014869</v>
+        <v>0.03103384543557979</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06147672030799579</v>
+        <v>0.06201390949674274</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>80</v>
@@ -3054,19 +3054,19 @@
         <v>65036</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>51729</v>
+        <v>50882</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>80417</v>
+        <v>80097</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.05991045884609943</v>
+        <v>0.05991045884609941</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04765256350253685</v>
+        <v>0.04687250100149513</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0740799624845859</v>
+        <v>0.07378495146775488</v>
       </c>
     </row>
     <row r="38">
@@ -3083,19 +3083,19 @@
         <v>3324</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8468</v>
+        <v>8500</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.005531491409549212</v>
+        <v>0.005531491409549211</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.001268780606748</v>
+        <v>0.001499965890134647</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01408988481756113</v>
+        <v>0.01414414162430549</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4</v>
@@ -3104,19 +3104,19 @@
         <v>2782</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6554</v>
+        <v>6902</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.005741531736975704</v>
+        <v>0.005741531736975703</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001469367678849381</v>
+        <v>0.001456293633846578</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01352488664856325</v>
+        <v>0.01424410280092639</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -3125,19 +3125,19 @@
         <v>6106</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2864</v>
+        <v>2503</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12205</v>
+        <v>10924</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.005625250504503049</v>
+        <v>0.005625250504503046</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002638709227765095</v>
+        <v>0.002306045875447652</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01124364799932364</v>
+        <v>0.01006329173411187</v>
       </c>
     </row>
     <row r="39">
@@ -3154,19 +3154,19 @@
         <v>6213</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2528</v>
+        <v>2502</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>12655</v>
+        <v>11935</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01033875066258575</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.004206665282390233</v>
+        <v>0.004162799760564046</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02105687687318415</v>
+        <v>0.0198593945871087</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4696</v>
+        <v>4668</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002713674147194584</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.009691554066843711</v>
+        <v>0.009632219233928525</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>9</v>
@@ -3196,19 +3196,19 @@
         <v>7528</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3904</v>
+        <v>3428</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>13724</v>
+        <v>13717</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.00693502204629408</v>
+        <v>0.006935022046294079</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.003596253383101614</v>
+        <v>0.003158295788754259</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01264287804238947</v>
+        <v>0.01263603042955445</v>
       </c>
     </row>
     <row r="40">
@@ -3225,19 +3225,19 @@
         <v>27743</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>18988</v>
+        <v>19254</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>37898</v>
+        <v>37457</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.04616298115152065</v>
+        <v>0.04616298115152064</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03159565631076237</v>
+        <v>0.03203875334311358</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06306024439920244</v>
+        <v>0.06232674658331414</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>28</v>
@@ -3246,19 +3246,19 @@
         <v>16003</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10815</v>
+        <v>10924</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23509</v>
+        <v>22962</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0330242614388563</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02231946586207632</v>
+        <v>0.02254420452790958</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04851441063149884</v>
+        <v>0.04738586542443103</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>61</v>
@@ -3267,19 +3267,19 @@
         <v>43745</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>33534</v>
+        <v>33463</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>56588</v>
+        <v>56293</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.04029803852738267</v>
+        <v>0.04029803852738266</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03089136762863915</v>
+        <v>0.03082642278265582</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05212849415171428</v>
+        <v>0.05185664851770936</v>
       </c>
     </row>
     <row r="41">
@@ -3296,19 +3296,19 @@
         <v>7895</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3540</v>
+        <v>3696</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14966</v>
+        <v>14968</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01313677272774481</v>
+        <v>0.0131367727277448</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00588966530312381</v>
+        <v>0.006149712468508058</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02490222820280792</v>
+        <v>0.02490557620510342</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -3317,19 +3317,19 @@
         <v>1823</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5047</v>
+        <v>5072</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003761768031419246</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001170382775669311</v>
+        <v>0.001164680276848734</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01041610223102574</v>
+        <v>0.01046700208879191</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>11</v>
@@ -3338,19 +3338,19 @@
         <v>9718</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5139</v>
+        <v>5307</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>16940</v>
+        <v>17182</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.008951900392583046</v>
+        <v>0.008951900392583045</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004734438052093122</v>
+        <v>0.004889004398766685</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0156049220003366</v>
+        <v>0.0158277059727482</v>
       </c>
     </row>
     <row r="42">
@@ -3367,19 +3367,19 @@
         <v>94172</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>78749</v>
+        <v>78209</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>111410</v>
+        <v>112261</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1566992165974428</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1310364286772994</v>
+        <v>0.1301370707178829</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1853826797098423</v>
+        <v>0.1867994733382661</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>99</v>
@@ -3388,19 +3388,19 @@
         <v>61552</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>50909</v>
+        <v>50478</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>73591</v>
+        <v>74185</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1270231496000182</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1050599297091291</v>
+        <v>0.1041690406927799</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1518681283903058</v>
+        <v>0.1530930391186405</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>199</v>
@@ -3409,19 +3409,19 @@
         <v>155724</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>137577</v>
+        <v>135561</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>176316</v>
+        <v>176879</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1434522310420538</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1267348946926486</v>
+        <v>0.1248784889030382</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1624215767433479</v>
+        <v>0.162939669513794</v>
       </c>
     </row>
     <row r="43">
@@ -3513,19 +3513,19 @@
         <v>266439</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>249685</v>
+        <v>251092</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>282905</v>
+        <v>281251</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.6633985370007489</v>
+        <v>0.6633985370007487</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6216835199188687</v>
+        <v>0.6251868600007994</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7043970039546242</v>
+        <v>0.7002785401096142</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>446</v>
@@ -3534,19 +3534,19 @@
         <v>236071</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>224056</v>
+        <v>224293</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>245946</v>
+        <v>245682</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7825406940454317</v>
+        <v>0.7825406940454319</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7427139904513662</v>
+        <v>0.7435002203050014</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8152749655081057</v>
+        <v>0.8144024210823531</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>820</v>
@@ -3555,19 +3555,19 @@
         <v>502509</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>483593</v>
+        <v>481764</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>522669</v>
+        <v>521415</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7145032541730385</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6876063134318378</v>
+        <v>0.6850061200094455</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7431677382733634</v>
+        <v>0.7413841869616878</v>
       </c>
     </row>
     <row r="45">
@@ -3584,19 +3584,19 @@
         <v>44816</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>34866</v>
+        <v>34757</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>56647</v>
+        <v>55671</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1115855569969808</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.08681190006229617</v>
+        <v>0.08654090503414706</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1410428807800943</v>
+        <v>0.1386139385383034</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>15</v>
@@ -3605,19 +3605,19 @@
         <v>8325</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>4400</v>
+        <v>4969</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>12749</v>
+        <v>13551</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02759489829909201</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01458604578687831</v>
+        <v>0.01647294346582748</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04226252979402671</v>
+        <v>0.04492029573697311</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>76</v>
@@ -3626,19 +3626,19 @@
         <v>53140</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>42203</v>
+        <v>42065</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>65643</v>
+        <v>65133</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.075558688218198</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.06000753954230531</v>
+        <v>0.05981136122628391</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.09333644055087181</v>
+        <v>0.09261021774848685</v>
       </c>
     </row>
     <row r="46">
@@ -3655,19 +3655,19 @@
         <v>2719</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6603</v>
+        <v>6876</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.006770850734053081</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001666202017307462</v>
+        <v>0.001856642305178366</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01644117013882046</v>
+        <v>0.01712122534985315</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>1552</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4244</v>
+        <v>4592</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.005145366424448562</v>
+        <v>0.005145366424448563</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001424526446409868</v>
+        <v>0.001430593496521594</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01406967709241287</v>
+        <v>0.01522082371661047</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3697,19 +3697,19 @@
         <v>4272</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1886</v>
+        <v>1910</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>8659</v>
+        <v>8700</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006073617126983342</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002681710091805815</v>
+        <v>0.00271623220399481</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01231187356481129</v>
+        <v>0.01236956611750868</v>
       </c>
     </row>
     <row r="47">
@@ -3726,19 +3726,19 @@
         <v>5836</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2457</v>
+        <v>2760</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11026</v>
+        <v>11818</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01453127781322435</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.006116846959914618</v>
+        <v>0.006872176055071295</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02745409271262795</v>
+        <v>0.02942584411189339</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -3747,19 +3747,19 @@
         <v>2523</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6287</v>
+        <v>6725</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.0083643484839157</v>
+        <v>0.008364348483915702</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002051442132446886</v>
+        <v>0.002145026183227065</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02084056724232568</v>
+        <v>0.02229232585358453</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>11</v>
@@ -3768,19 +3768,19 @@
         <v>8359</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4049</v>
+        <v>4632</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>14830</v>
+        <v>14731</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01188604134098539</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005757211392315102</v>
+        <v>0.00658668171534341</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02108672868704655</v>
+        <v>0.02094568519952139</v>
       </c>
     </row>
     <row r="48">
@@ -3797,19 +3797,19 @@
         <v>16185</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>10953</v>
+        <v>10039</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>23814</v>
+        <v>23263</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0402983433061394</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02727040801022849</v>
+        <v>0.02499564104801494</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05929313298616234</v>
+        <v>0.05792304659517209</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>13</v>
@@ -3818,19 +3818,19 @@
         <v>6141</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3233</v>
+        <v>3520</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>10843</v>
+        <v>10572</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02035550887848437</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01071584663983792</v>
+        <v>0.01166819082428706</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03594319155025746</v>
+        <v>0.03504590702377316</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>38</v>
@@ -3839,19 +3839,19 @@
         <v>22326</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>16090</v>
+        <v>16202</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>29978</v>
+        <v>30991</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03174408393800589</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02287767884962833</v>
+        <v>0.02303684874360599</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04262498690798093</v>
+        <v>0.04406565086867194</v>
       </c>
     </row>
     <row r="49">
@@ -3868,19 +3868,19 @@
         <v>7877</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3937</v>
+        <v>3425</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>14669</v>
+        <v>13609</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01961388011145219</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.009802845067298203</v>
+        <v>0.008526789886026542</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03652505432103698</v>
+        <v>0.03388576890649991</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>0</v>
@@ -3902,19 +3902,19 @@
         <v>7877</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>3886</v>
+        <v>3891</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>14408</v>
+        <v>14253</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.01120072207729777</v>
+        <v>0.01120072207729776</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.005524755347509814</v>
+        <v>0.005532948965471953</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02048617805117215</v>
+        <v>0.02026530195024928</v>
       </c>
     </row>
     <row r="50">
@@ -3931,19 +3931,19 @@
         <v>57755</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>46344</v>
+        <v>46733</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>69465</v>
+        <v>70991</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1438015540374015</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1153898655539335</v>
+        <v>0.1163579745522562</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1729601081405343</v>
+        <v>0.1767583563560925</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>88</v>
@@ -3952,19 +3952,19 @@
         <v>47061</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>38019</v>
+        <v>38426</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>57037</v>
+        <v>57116</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1559991838686275</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1260271543285085</v>
+        <v>0.1273778017860371</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1890696103968666</v>
+        <v>0.1893298958323485</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>168</v>
@@ -3973,19 +3973,19 @@
         <v>104815</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>90294</v>
+        <v>90381</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>121238</v>
+        <v>120145</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1490335931254911</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1283863909738116</v>
+        <v>0.1285101842567</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1723844956137797</v>
+        <v>0.1708310454331059</v>
       </c>
     </row>
     <row r="51">
@@ -4077,19 +4077,19 @@
         <v>194650</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>180228</v>
+        <v>180563</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>208497</v>
+        <v>209617</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.6317350079920488</v>
+        <v>0.6317350079920485</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.5849270432948659</v>
+        <v>0.5860164509377198</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.6766741821421843</v>
+        <v>0.6803090050062124</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>360</v>
@@ -4098,19 +4098,19 @@
         <v>175665</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>164865</v>
+        <v>164387</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>184909</v>
+        <v>186087</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.749064385052873</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.7030104439012896</v>
+        <v>0.7009725402368546</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.7884801560870911</v>
+        <v>0.7935020374640557</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>646</v>
@@ -4119,19 +4119,19 @@
         <v>370316</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>353431</v>
+        <v>353428</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>388667</v>
+        <v>387072</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.6824419504675099</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.6513265387941872</v>
+        <v>0.6513213596376005</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.7162613909789093</v>
+        <v>0.7133217198676824</v>
       </c>
     </row>
     <row r="53">
@@ -4148,19 +4148,19 @@
         <v>39327</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>30398</v>
+        <v>30707</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>49498</v>
+        <v>49781</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1276338440196568</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09865508418610117</v>
+        <v>0.09966016080826054</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.160644120159407</v>
+        <v>0.1615620902197839</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>11</v>
@@ -4169,19 +4169,19 @@
         <v>6617</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>3636</v>
+        <v>3562</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>11976</v>
+        <v>11899</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.02821737808203543</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.01550279998269073</v>
+        <v>0.01519087376117602</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05106813068903421</v>
+        <v>0.05073858812683327</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>66</v>
@@ -4190,19 +4190,19 @@
         <v>45944</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>35819</v>
+        <v>35675</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>57509</v>
+        <v>57079</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.08466843206831499</v>
+        <v>0.08466843206831497</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.06601013837972984</v>
+        <v>0.06574459353924558</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1059814099343067</v>
+        <v>0.1051885899935094</v>
       </c>
     </row>
     <row r="54">
@@ -4222,16 +4222,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6577</v>
+        <v>7005</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.005814569852424738</v>
+        <v>0.005814569852424735</v>
       </c>
       <c r="H54" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02134635740687943</v>
+        <v>0.02273444797991002</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>3992</v>
+        <v>4621</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.005634849250386174</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01702248081741357</v>
+        <v>0.01970639257516052</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>4</v>
@@ -4261,19 +4261,19 @@
         <v>3113</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>7844</v>
+        <v>7270</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.005736898919044596</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.001219755649485137</v>
+        <v>0.001215471212526986</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01445543208192357</v>
+        <v>0.01339830444009137</v>
       </c>
     </row>
     <row r="55">
@@ -4290,19 +4290,19 @@
         <v>6258</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>3043</v>
+        <v>2892</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>11898</v>
+        <v>12197</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.02031077433502442</v>
+        <v>0.02031077433502441</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.009875793430871128</v>
+        <v>0.009384989709650883</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03861424231887026</v>
+        <v>0.03958498018008644</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>9129</v>
+        <v>8694</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01019458607045986</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03892956342367868</v>
+        <v>0.03707113947304264</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>10</v>
@@ -4332,19 +4332,19 @@
         <v>8649</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>3781</v>
+        <v>4233</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>15948</v>
+        <v>16321</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01593880041636728</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.006967265481749984</v>
+        <v>0.007801324541057805</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02938971610567461</v>
+        <v>0.03007787757754849</v>
       </c>
     </row>
     <row r="56">
@@ -4361,19 +4361,19 @@
         <v>12098</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>7414</v>
+        <v>7769</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>19017</v>
+        <v>18315</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.03926468431982608</v>
+        <v>0.03926468431982607</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02406226311731972</v>
+        <v>0.02521517507029219</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0617180836082354</v>
+        <v>0.05944145240277154</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>13</v>
@@ -4382,19 +4382,19 @@
         <v>7952</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>4479</v>
+        <v>4211</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>13395</v>
+        <v>13622</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.03390844833878739</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01909920325852717</v>
+        <v>0.01795676701061024</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.05711669479742579</v>
+        <v>0.05808534770350503</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>33</v>
@@ -4403,19 +4403,19 @@
         <v>20050</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>13898</v>
+        <v>14144</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>27903</v>
+        <v>28368</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.03694984760476598</v>
+        <v>0.03694984760476599</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02561163810014107</v>
+        <v>0.02606561303856902</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.05142135640409862</v>
+        <v>0.05227839020524011</v>
       </c>
     </row>
     <row r="57">
@@ -4432,19 +4432,19 @@
         <v>6290</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>2965</v>
+        <v>2988</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>12040</v>
+        <v>12680</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.02041468131600498</v>
+        <v>0.02041468131600497</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.009624035221688086</v>
+        <v>0.009697978513121437</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0390765984650848</v>
+        <v>0.04115173200286794</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>3</v>
@@ -4453,19 +4453,19 @@
         <v>1567</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>4447</v>
+        <v>4713</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.006683011837780752</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.001290171519632931</v>
+        <v>0.001276982053222149</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.01896305508558689</v>
+        <v>0.02009774579266979</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>12</v>
@@ -4474,19 +4474,19 @@
         <v>7857</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>4298</v>
+        <v>3998</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>13827</v>
+        <v>13218</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.01448018313859283</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.007920251777308348</v>
+        <v>0.007368681818184735</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.02548204563980064</v>
+        <v>0.02435938805619836</v>
       </c>
     </row>
     <row r="58">
@@ -4503,19 +4503,19 @@
         <v>47705</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>37758</v>
+        <v>37934</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>58820</v>
+        <v>58366</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.1548264381650145</v>
+        <v>0.1548264381650144</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.122543910025314</v>
+        <v>0.1231151651834963</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.190899293397449</v>
+        <v>0.1894272161146054</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>76</v>
@@ -4524,19 +4524,19 @@
         <v>38999</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>31853</v>
+        <v>31550</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>48151</v>
+        <v>48586</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.1662973413676774</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.1358281245020901</v>
+        <v>0.1345343047167341</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.2053251508337331</v>
+        <v>0.2071797709308102</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>151</v>
@@ -4545,19 +4545,19 @@
         <v>86704</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>75237</v>
+        <v>73533</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>100996</v>
+        <v>99756</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.1597838873854043</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.1386523986638776</v>
+        <v>0.1355120740530449</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.1861228255602466</v>
+        <v>0.1838371773221612</v>
       </c>
     </row>
     <row r="59">
@@ -4649,19 +4649,19 @@
         <v>2314184</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>2256853</v>
+        <v>2262840</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>2364090</v>
+        <v>2366022</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.7176208610896762</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.6998427947338329</v>
+        <v>0.7016994848518091</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.7330965743662716</v>
+        <v>0.7336958311979033</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>3281</v>
@@ -4670,19 +4670,19 @@
         <v>2250273</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>2214645</v>
+        <v>2215195</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>2284437</v>
+        <v>2283011</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.8051104929079588</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.7923631683145403</v>
+        <v>0.7925600728766523</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.8173337443817238</v>
+        <v>0.8168236161797865</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>5527</v>
@@ -4691,19 +4691,19 @@
         <v>4564456</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>4499668</v>
+        <v>4503131</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>4629488</v>
+        <v>4627483</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.7582422944223027</v>
+        <v>0.758242294422303</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.74747970305706</v>
+        <v>0.7480549349642585</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.7690453285900304</v>
+        <v>0.7687121686695927</v>
       </c>
     </row>
     <row r="61">
@@ -4720,19 +4720,19 @@
         <v>268604</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>238198</v>
+        <v>235190</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>302744</v>
+        <v>299286</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.08329312742411768</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.07386429591707068</v>
+        <v>0.07293159567659019</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.09387984135206863</v>
+        <v>0.09280771339045794</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>151</v>
@@ -4741,19 +4741,19 @@
         <v>109329</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>92421</v>
+        <v>92303</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>127658</v>
+        <v>128614</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.03911595007657569</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.03306660034138054</v>
+        <v>0.03302442164330543</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.04567391028678183</v>
+        <v>0.04601601847795388</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>430</v>
@@ -4762,19 +4762,19 @@
         <v>377932</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>343624</v>
+        <v>343651</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>412601</v>
+        <v>415339</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.06278166535539974</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.05708241563449917</v>
+        <v>0.05708695632373269</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.06854084781431108</v>
+        <v>0.06899566660994078</v>
       </c>
     </row>
     <row r="62">
@@ -4791,19 +4791,19 @@
         <v>16769</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>9546</v>
+        <v>10098</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>26361</v>
+        <v>26150</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.005200078172776479</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.002960157212391151</v>
+        <v>0.003131262792704296</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.008174482335060034</v>
+        <v>0.00810907235047807</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>11</v>
@@ -4812,19 +4812,19 @@
         <v>7421</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>3792</v>
+        <v>3661</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>12465</v>
+        <v>13373</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.002655024278984765</v>
+        <v>0.002655024278984764</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.001356840658428163</v>
+        <v>0.001310014703180534</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.004459857514024661</v>
+        <v>0.004784742497230309</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>29</v>
@@ -4833,19 +4833,19 @@
         <v>24190</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>16598</v>
+        <v>15975</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>35693</v>
+        <v>34935</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.004018409729030691</v>
+        <v>0.00401840972903069</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.002757297559156299</v>
+        <v>0.002653804984342997</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.005929220632254809</v>
+        <v>0.005803326152916987</v>
       </c>
     </row>
     <row r="63">
@@ -4862,19 +4862,19 @@
         <v>34327</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>23485</v>
+        <v>24001</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>51135</v>
+        <v>52064</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.01064472023854447</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.007282552975499097</v>
+        <v>0.007442486391185791</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.01585686047357746</v>
+        <v>0.01614502003219634</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>28</v>
@@ -4883,19 +4883,19 @@
         <v>20503</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>14234</v>
+        <v>13565</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>29658</v>
+        <v>30306</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.007335622544440906</v>
+        <v>0.007335622544440905</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.005092742087888747</v>
+        <v>0.004853264524164093</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.01061116394596827</v>
+        <v>0.01084297849032034</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>62</v>
@@ -4904,19 +4904,19 @@
         <v>54830</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>42032</v>
+        <v>41893</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>72730</v>
+        <v>72552</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.009108306282072806</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.006982316737795998</v>
+        <v>0.006959231486891228</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.01208181062547851</v>
+        <v>0.01205220918340513</v>
       </c>
     </row>
     <row r="64">
@@ -4933,19 +4933,19 @@
         <v>125967</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>106134</v>
+        <v>106218</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>148489</v>
+        <v>150241</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.03906206401802832</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.03291167198672488</v>
+        <v>0.03293779902286609</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.04604600153127991</v>
+        <v>0.04658933769335846</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>105</v>
@@ -4954,19 +4954,19 @@
         <v>68989</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>56362</v>
+        <v>55969</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>85350</v>
+        <v>84042</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.02468303360370264</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.02016549178634659</v>
+        <v>0.02002469434113313</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.03053686878211039</v>
+        <v>0.03006877455038793</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>250</v>
@@ -4975,19 +4975,19 @@
         <v>194956</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>171902</v>
+        <v>169970</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>224113</v>
+        <v>223291</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.03238588064379123</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.02855615817612575</v>
+        <v>0.02823529013897921</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.03722940840128638</v>
+        <v>0.03709291050042655</v>
       </c>
     </row>
     <row r="65">
@@ -5004,19 +5004,19 @@
         <v>47891</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>35035</v>
+        <v>34376</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>63580</v>
+        <v>63801</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01485069791524513</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.01086433890585336</v>
+        <v>0.01065989295738049</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.0197160972123806</v>
+        <v>0.01978435469964892</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>24</v>
@@ -5025,19 +5025,19 @@
         <v>16750</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>11141</v>
+        <v>10926</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>24744</v>
+        <v>24676</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.005992878254664327</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.003986038842068879</v>
+        <v>0.003908997130905031</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.008853138173342661</v>
+        <v>0.008828697111979722</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>71</v>
@@ -5046,19 +5046,19 @@
         <v>64641</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>50000</v>
+        <v>50616</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>83702</v>
+        <v>83213</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.01073801252228269</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.008306008264043768</v>
+        <v>0.008408214023652287</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.01390455702553547</v>
+        <v>0.01382320859487618</v>
       </c>
     </row>
     <row r="66">
@@ -5075,19 +5075,19 @@
         <v>417058</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>379477</v>
+        <v>375861</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>457480</v>
+        <v>454884</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1293284511416118</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1176745527918994</v>
+        <v>0.1165532338542331</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1418629827299697</v>
+        <v>0.1410580920160648</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>489</v>
@@ -5096,19 +5096,19 @@
         <v>321723</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>296133</v>
+        <v>296111</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>351516</v>
+        <v>351950</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.115106998333673</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.1059514622333572</v>
+        <v>0.1059436701294789</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1257667129031422</v>
+        <v>0.1259220434943706</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>930</v>
@@ -5117,19 +5117,19 @@
         <v>738781</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>693040</v>
+        <v>687954</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>786055</v>
+        <v>785280</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1227254310451201</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.1151270871258453</v>
+        <v>0.1142821647521476</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1305785832581871</v>
+        <v>0.1304498473204544</v>
       </c>
     </row>
     <row r="67">
